--- a/output/BayesTheo0.1Citptile0.9alpha0.05power0.8N1000/BayesTheo0.1Citptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/BayesTheo0.1Citptile0.9alpha0.05power0.8N1000/BayesTheo0.1Citptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\BayesTheo0.1Citptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EB359E-3ECF-46FE-A21D-44CB9DBE572D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ABEBB5-5AD2-41BA-B094-7AE2678A5728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{EE23C2B2-6A3B-48F5-9820-1346958BB283}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{88112E0E-AE3F-41D9-B929-12C2F5B4F715}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26D4269-7A5E-4E18-8173-DB0148831B83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709AA336-0343-4E4B-9B68-22D9D6C9A42E}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.5307935146991546E-2</v>
+        <v>1.5167217814765762E-2</v>
       </c>
       <c r="D2">
-        <v>0.90132488677385725</v>
+        <v>0.89814353218580889</v>
       </c>
       <c r="E2">
         <v>8.1850000000000005</v>
       </c>
       <c r="F2">
-        <v>109.08199999999999</v>
+        <v>109.842</v>
       </c>
       <c r="G2">
-        <v>6.9850000000000003</v>
+        <v>7.6580000000000004</v>
       </c>
       <c r="H2">
-        <v>0.999</v>
+        <v>1.155</v>
       </c>
       <c r="I2">
-        <v>1.0149999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="J2">
-        <v>1.2079510703363914E-2</v>
+        <v>1.3684409211023027E-2</v>
       </c>
       <c r="K2">
-        <v>0.90214215471100945</v>
+        <v>0.90112125915820662</v>
       </c>
       <c r="L2">
-        <v>9.0820000000000007</v>
+        <v>9.8420000000000005</v>
       </c>
       <c r="M2">
-        <v>109.08199999999999</v>
+        <v>109.842</v>
       </c>
       <c r="N2">
-        <v>0.99199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="O2">
-        <v>1.014</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1220000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.476753626945692E-2</v>
+        <v>1.5836463330782952E-2</v>
       </c>
       <c r="D3">
-        <v>0.90320369888032936</v>
+        <v>0.90404010314839844</v>
       </c>
       <c r="E3">
-        <v>8.1790000000000003</v>
+        <v>8.1809999999999992</v>
       </c>
       <c r="F3">
-        <v>108.88200000000001</v>
+        <v>110.053</v>
       </c>
       <c r="G3">
-        <v>6.8220000000000001</v>
+        <v>7.7809999999999997</v>
       </c>
       <c r="H3">
-        <v>0.67700000000000005</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="I3">
-        <v>0.67200000000000004</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="J3">
-        <v>1.094391244870041E-2</v>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="K3">
-        <v>0.89058512293806413</v>
+        <v>0.90741993049685366</v>
       </c>
       <c r="L3">
-        <v>8.8819999999999997</v>
+        <v>10.053000000000001</v>
       </c>
       <c r="M3">
-        <v>100.95399999999999</v>
+        <v>100.982</v>
       </c>
       <c r="N3">
-        <v>0.71899999999999997</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="O3">
-        <v>0.71099999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1.4816236685033001E-2</v>
+        <v>1.5773167769318471E-2</v>
       </c>
       <c r="D4">
-        <v>0.90263305100960356</v>
+        <v>0.90419149606200933</v>
       </c>
       <c r="E4">
-        <v>8.1929999999999996</v>
+        <v>8.2010000000000005</v>
       </c>
       <c r="F4">
-        <v>109.601</v>
+        <v>109.336</v>
       </c>
       <c r="G4">
-        <v>7.484</v>
+        <v>7.1340000000000003</v>
       </c>
       <c r="H4">
-        <v>1.0649999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="I4">
-        <v>1.004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="J4">
-        <v>1.4007597340930674E-2</v>
+        <v>1.3869625520110958E-2</v>
       </c>
       <c r="K4">
-        <v>0.8896372046641593</v>
+        <v>0.90250629967047902</v>
       </c>
       <c r="L4">
-        <v>9.6010000000000009</v>
+        <v>9.3360000000000003</v>
       </c>
       <c r="M4">
-        <v>101.465</v>
+        <v>101.377</v>
       </c>
       <c r="N4">
-        <v>1.1299999999999999</v>
+        <v>1.026</v>
       </c>
       <c r="O4">
-        <v>1.119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1.5526719427599388E-2</v>
+        <v>1.4560786319770862E-2</v>
       </c>
       <c r="D5">
-        <v>0.90521577651467433</v>
+        <v>0.90082151173441494</v>
       </c>
       <c r="E5">
-        <v>8.1720000000000006</v>
+        <v>8.1760000000000002</v>
       </c>
       <c r="F5">
-        <v>109.355</v>
+        <v>109.13800000000001</v>
       </c>
       <c r="G5">
-        <v>7.2060000000000004</v>
+        <v>7.077</v>
       </c>
       <c r="H5">
-        <v>1.7889999999999999</v>
+        <v>1.746</v>
       </c>
       <c r="I5">
-        <v>1.774</v>
+        <v>1.508</v>
       </c>
       <c r="J5">
-        <v>8.9201877934272297E-3</v>
+        <v>7.9861111111111105E-3</v>
       </c>
       <c r="K5">
-        <v>0.90223790138860871</v>
+        <v>0.90777618707946639</v>
       </c>
       <c r="L5">
-        <v>9.3550000000000004</v>
+        <v>9.1379999999999999</v>
       </c>
       <c r="M5">
-        <v>102.194</v>
+        <v>102.20099999999999</v>
       </c>
       <c r="N5">
-        <v>1.6850000000000001</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="O5">
-        <v>1.6779999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.6950000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.4599357279010046E-2</v>
+        <v>1.5344180433374707E-2</v>
       </c>
       <c r="D6">
-        <v>0.89916077749201651</v>
+        <v>0.89957646514547662</v>
       </c>
       <c r="E6">
-        <v>8.1920000000000002</v>
+        <v>8.1809999999999992</v>
       </c>
       <c r="F6">
-        <v>110.357</v>
+        <v>109.375</v>
       </c>
       <c r="G6">
-        <v>8.1489999999999991</v>
+        <v>7.2690000000000001</v>
       </c>
       <c r="H6">
-        <v>1.1859999999999999</v>
+        <v>1.095</v>
       </c>
       <c r="I6">
-        <v>1.1459999999999999</v>
+        <v>1.131</v>
       </c>
       <c r="J6">
-        <v>1.5421115065243182E-2</v>
+        <v>1.10282874617737E-2</v>
       </c>
       <c r="K6">
-        <v>0.90405971078792813</v>
+        <v>0.90415120874553057</v>
       </c>
       <c r="L6">
-        <v>10.356999999999999</v>
+        <v>9.375</v>
       </c>
       <c r="M6">
-        <v>110.357</v>
+        <v>109.375</v>
       </c>
       <c r="N6">
-        <v>1.1930000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="O6">
-        <v>1.099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1.4735733062064296E-2</v>
+        <v>1.5429822778011443E-2</v>
       </c>
       <c r="D7">
-        <v>0.89899649297153394</v>
+        <v>0.90212009220322398</v>
       </c>
       <c r="E7">
-        <v>8.1820000000000004</v>
+        <v>8.1690000000000005</v>
       </c>
       <c r="F7">
-        <v>109.878</v>
+        <v>109.301</v>
       </c>
       <c r="G7">
-        <v>7.7030000000000003</v>
+        <v>7.149</v>
       </c>
       <c r="H7">
-        <v>0.76800000000000002</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="I7">
-        <v>0.752</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="J7">
-        <v>5.8055152394775036E-3</v>
+        <v>1.6973125884016973E-2</v>
       </c>
       <c r="K7">
-        <v>0.92164421324085211</v>
+        <v>0.93403614457831297</v>
       </c>
       <c r="L7">
-        <v>9.8780000000000001</v>
+        <v>9.3010000000000002</v>
       </c>
       <c r="M7">
-        <v>101.035</v>
+        <v>100.964</v>
       </c>
       <c r="N7">
-        <v>0.82399999999999995</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="O7">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>1.4978432234236561E-2</v>
+        <v>1.5542307807252704E-2</v>
       </c>
       <c r="D8">
-        <v>0.90115699438931562</v>
+        <v>0.89818902288580327</v>
       </c>
       <c r="E8">
-        <v>8.1910000000000007</v>
+        <v>8.1790000000000003</v>
       </c>
       <c r="F8">
-        <v>109.137</v>
+        <v>109.24299999999999</v>
       </c>
       <c r="G8">
-        <v>7.0090000000000003</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="H8">
-        <v>1.002</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="I8">
-        <v>1.1120000000000001</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="J8">
-        <v>5.5172413793103444E-3</v>
+        <v>1.4144271570014143E-2</v>
       </c>
       <c r="K8">
-        <v>0.9150698094894526</v>
+        <v>0.90247755517152084</v>
       </c>
       <c r="L8">
-        <v>9.1370000000000005</v>
+        <v>9.2430000000000003</v>
       </c>
       <c r="M8">
-        <v>101.325</v>
+        <v>101.343</v>
       </c>
       <c r="N8">
-        <v>1.0209999999999999</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="O8">
-        <v>1.0169999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1.4496604060062255E-2</v>
+        <v>1.5165292696164985E-2</v>
       </c>
       <c r="D9">
-        <v>0.89814281480230296</v>
+        <v>0.9006712996398657</v>
       </c>
       <c r="E9">
-        <v>8.173</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="F9">
-        <v>109.10899999999999</v>
+        <v>109.515</v>
       </c>
       <c r="G9">
-        <v>7.0049999999999999</v>
+        <v>7.3529999999999998</v>
       </c>
       <c r="H9">
-        <v>1.47</v>
+        <v>1.7110000000000001</v>
       </c>
       <c r="I9">
-        <v>1.534</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="J9">
-        <v>1.3399153737658674E-2</v>
+        <v>1.5753424657534248E-2</v>
       </c>
       <c r="K9">
-        <v>0.89137846178001634</v>
+        <v>0.89465268344236704</v>
       </c>
       <c r="L9">
-        <v>9.109</v>
+        <v>9.5150000000000006</v>
       </c>
       <c r="M9">
-        <v>102.163</v>
+        <v>102.217</v>
       </c>
       <c r="N9">
-        <v>1.6619999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="O9">
-        <v>1.6519999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.5458887701782493E-2</v>
+        <v>1.7211810864351446E-2</v>
       </c>
       <c r="D10">
-        <v>0.89342976882080782</v>
+        <v>0.8982855119001063</v>
       </c>
       <c r="E10">
-        <v>8.1769999999999996</v>
+        <v>8.1929999999999996</v>
       </c>
       <c r="F10">
-        <v>109.17</v>
+        <v>109.27200000000001</v>
       </c>
       <c r="G10">
-        <v>7.0620000000000003</v>
+        <v>6.9820000000000002</v>
       </c>
       <c r="H10">
-        <v>0.98199999999999998</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="I10">
-        <v>0.95399999999999996</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="J10">
-        <v>1.7817414652857695E-2</v>
+        <v>1.6565349544072946E-2</v>
       </c>
       <c r="K10">
-        <v>0.90428586838654323</v>
+        <v>0.90665396670737142</v>
       </c>
       <c r="L10">
-        <v>9.17</v>
+        <v>9.2720000000000002</v>
       </c>
       <c r="M10">
-        <v>109.17</v>
+        <v>109.27200000000001</v>
       </c>
       <c r="N10">
-        <v>0.92400000000000004</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="O10">
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.7210491751720604E-2</v>
+        <v>1.595119052337347E-2</v>
       </c>
       <c r="D11">
-        <v>0.90680467164082657</v>
+        <v>0.90586417726662682</v>
       </c>
       <c r="E11">
-        <v>8.1750000000000007</v>
+        <v>8.1859999999999999</v>
       </c>
       <c r="F11">
-        <v>108.98099999999999</v>
+        <v>109.16500000000001</v>
       </c>
       <c r="G11">
-        <v>6.7130000000000001</v>
+        <v>7.024</v>
       </c>
       <c r="H11">
-        <v>0.69199999999999995</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="I11">
-        <v>0.71899999999999997</v>
+        <v>0.76</v>
       </c>
       <c r="J11">
-        <v>2.2788203753351208E-2</v>
+        <v>1.9390581717451522E-2</v>
       </c>
       <c r="K11">
-        <v>0.92256426700871141</v>
+        <v>0.91152153488602061</v>
       </c>
       <c r="L11">
-        <v>8.9809999999999999</v>
+        <v>9.1649999999999991</v>
       </c>
       <c r="M11">
-        <v>100.949</v>
+        <v>100.937</v>
       </c>
       <c r="N11">
-        <v>0.73399999999999999</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="O11">
-        <v>0.71599999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.726465310292026E-2</v>
+        <v>1.691589870980674E-2</v>
       </c>
       <c r="D12">
-        <v>0.90416350812434954</v>
+        <v>0.89891362655548934</v>
       </c>
       <c r="E12">
-        <v>8.1660000000000004</v>
+        <v>8.1980000000000004</v>
       </c>
       <c r="F12">
-        <v>109.514</v>
+        <v>109.17</v>
       </c>
       <c r="G12">
-        <v>7.133</v>
+        <v>6.9119999999999999</v>
       </c>
       <c r="H12">
-        <v>1.1240000000000001</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="I12">
-        <v>1.052</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="J12">
-        <v>2.2503516174402251E-2</v>
+        <v>1.3850415512465374E-2</v>
       </c>
       <c r="K12">
-        <v>0.90818435867731639</v>
+        <v>0.92002485860244476</v>
       </c>
       <c r="L12">
-        <v>9.5139999999999993</v>
+        <v>9.17</v>
       </c>
       <c r="M12">
-        <v>101.41200000000001</v>
+        <v>101.35599999999999</v>
       </c>
       <c r="N12">
-        <v>1.087</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="O12">
-        <v>1.071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>1.5955970014033882E-2</v>
+        <v>1.6937700627354994E-2</v>
       </c>
       <c r="D13">
-        <v>0.90613648297167582</v>
+        <v>0.90397713021005643</v>
       </c>
       <c r="E13">
-        <v>8.1959999999999997</v>
+        <v>8.1750000000000007</v>
       </c>
       <c r="F13">
-        <v>109.583</v>
+        <v>109.771</v>
       </c>
       <c r="G13">
-        <v>7.4349999999999996</v>
+        <v>7.5229999999999997</v>
       </c>
       <c r="H13">
-        <v>1.724</v>
+        <v>2.0409999999999999</v>
       </c>
       <c r="I13">
-        <v>1.736</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="J13">
-        <v>1.783166904422254E-2</v>
+        <v>1.1789181692094313E-2</v>
       </c>
       <c r="K13">
-        <v>0.90699416796355603</v>
+        <v>0.91578271718016135</v>
       </c>
       <c r="L13">
-        <v>9.5830000000000002</v>
+        <v>9.7710000000000008</v>
       </c>
       <c r="M13">
-        <v>102.30500000000001</v>
+        <v>102.251</v>
       </c>
       <c r="N13">
-        <v>1.8140000000000001</v>
+        <v>1.7190000000000001</v>
       </c>
       <c r="O13">
-        <v>1.8009999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.7090000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.9541924355847048E-2</v>
+        <v>2.0452661529258363E-2</v>
       </c>
       <c r="D14">
-        <v>0.91064914275207531</v>
+        <v>0.91976970745457753</v>
       </c>
       <c r="E14">
-        <v>8.1760000000000002</v>
+        <v>8.1709999999999994</v>
       </c>
       <c r="F14">
-        <v>110.553</v>
+        <v>109.52500000000001</v>
       </c>
       <c r="G14">
-        <v>8.0589999999999993</v>
+        <v>7.0460000000000003</v>
       </c>
       <c r="H14">
-        <v>1.0720000000000001</v>
+        <v>1.095</v>
       </c>
       <c r="I14">
-        <v>1.107</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="J14">
-        <v>2.3765093304061461E-2</v>
+        <v>2.5110590684361177E-2</v>
       </c>
       <c r="K14">
-        <v>0.91954449234023339</v>
+        <v>0.9106182183208732</v>
       </c>
       <c r="L14">
-        <v>10.553000000000001</v>
+        <v>9.5250000000000004</v>
       </c>
       <c r="M14">
-        <v>110.553</v>
+        <v>109.52500000000001</v>
       </c>
       <c r="N14">
-        <v>1.222</v>
+        <v>0.95</v>
       </c>
       <c r="O14">
-        <v>1.129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0029999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1.8744546789915547E-2</v>
+        <v>2.0280700801775818E-2</v>
       </c>
       <c r="D15">
-        <v>0.91081933927381553</v>
+        <v>0.91287624892610109</v>
       </c>
       <c r="E15">
-        <v>8.1750000000000007</v>
+        <v>8.1969999999999992</v>
       </c>
       <c r="F15">
-        <v>109.277</v>
+        <v>109.91800000000001</v>
       </c>
       <c r="G15">
-        <v>6.9859999999999998</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="H15">
-        <v>0.73799999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="I15">
-        <v>0.71</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="J15">
-        <v>2.2207267833109019E-2</v>
+        <v>2.1551724137931036E-2</v>
       </c>
       <c r="K15">
-        <v>0.92139009139009143</v>
+        <v>0.91650585404229723</v>
       </c>
       <c r="L15">
-        <v>9.2769999999999992</v>
+        <v>9.9179999999999993</v>
       </c>
       <c r="M15">
-        <v>100.94499999999999</v>
+        <v>101.023</v>
       </c>
       <c r="N15">
-        <v>0.73</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="O15">
-        <v>0.71299999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>1.9273335647653451E-2</v>
+        <v>1.9829672776894253E-2</v>
       </c>
       <c r="D16">
-        <v>0.91808136052839417</v>
+        <v>0.91914649343416044</v>
       </c>
       <c r="E16">
-        <v>8.18</v>
+        <v>8.173</v>
       </c>
       <c r="F16">
-        <v>109.247</v>
+        <v>110.011</v>
       </c>
       <c r="G16">
-        <v>6.9009999999999998</v>
+        <v>7.5410000000000004</v>
       </c>
       <c r="H16">
-        <v>0.93799999999999994</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I16">
-        <v>1.0149999999999999</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="J16">
-        <v>2.7624309392265192E-2</v>
+        <v>1.6506189821182942E-2</v>
       </c>
       <c r="K16">
-        <v>0.92209601218347592</v>
+        <v>0.92754656486644982</v>
       </c>
       <c r="L16">
-        <v>9.2469999999999999</v>
+        <v>10.010999999999999</v>
       </c>
       <c r="M16">
-        <v>101.324</v>
+        <v>101.437</v>
       </c>
       <c r="N16">
-        <v>1.02</v>
+        <v>1.091</v>
       </c>
       <c r="O16">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1.8516639853657479E-2</v>
+        <v>1.9558163939778491E-2</v>
       </c>
       <c r="D17">
-        <v>0.91733325484075179</v>
+        <v>0.91432998770853013</v>
       </c>
       <c r="E17">
-        <v>8.2119999999999997</v>
+        <v>8.1630000000000003</v>
       </c>
       <c r="F17">
-        <v>109.65300000000001</v>
+        <v>110.05200000000001</v>
       </c>
       <c r="G17">
-        <v>7.2969999999999997</v>
+        <v>7.6029999999999998</v>
       </c>
       <c r="H17">
-        <v>1.6379999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="I17">
-        <v>1.706</v>
+        <v>1.9059999999999999</v>
       </c>
       <c r="J17">
-        <v>2.2696011004126548E-2</v>
+        <v>1.3013698630136987E-2</v>
       </c>
       <c r="K17">
-        <v>0.91695477090554889</v>
+        <v>0.91285698739887278</v>
       </c>
       <c r="L17">
-        <v>9.6530000000000005</v>
+        <v>10.052</v>
       </c>
       <c r="M17">
-        <v>102.271</v>
+        <v>102.30500000000001</v>
       </c>
       <c r="N17">
-        <v>1.74</v>
+        <v>1.748</v>
       </c>
       <c r="O17">
-        <v>1.7230000000000001</v>
+        <v>1.738</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B9D81B-E58C-4B1B-9BF5-07C3F78A6176}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA744DE-9BCB-4C84-9108-D28916415346}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
